--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_25.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_25.xlsx
@@ -52,10 +52,10 @@
     <t>Total time online (min)</t>
   </si>
   <si>
-    <t>Start of Session 1 (%)</t>
+    <t>Resources viewed</t>
   </si>
   <si>
-    <t>Resources viewed</t>
+    <t>Clicks on course</t>
   </si>
   <si>
     <t>Days with no interaction</t>
@@ -67,10 +67,10 @@
     <t>Average session duration (min)</t>
   </si>
   <si>
-    <t>Start of Session 2 (%)</t>
+    <t>Start of Session 1 (%)</t>
   </si>
   <si>
-    <t>Clicks on course</t>
+    <t>Start of Session 2 (%)</t>
   </si>
   <si>
     <t>Number of sessions</t>
@@ -91,13 +91,25 @@
     <t>Number of clicks</t>
   </si>
   <si>
+    <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
+  </si>
+  <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
     <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Start of Session 5 (%)</t>
@@ -106,28 +118,13 @@
     <t>Number of days</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
     <t>Clicks on forum</t>
   </si>
   <si>
-    <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
     <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Quizzes started</t>
   </si>
   <si>
     <t>Assignments submitted</t>
@@ -136,10 +133,13 @@
     <t>Forum posts</t>
   </si>
   <si>
-    <t>Discussions viewed</t>
+    <t>Quizzes started</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
+  </si>
+  <si>
+    <t>Discussions viewed</t>
   </si>
   <si>
     <t>Submissions (% of course total)</t>
@@ -741,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -773,10 +773,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -994,7 +994,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1026,31 +1026,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1058,7 +1058,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -1090,7 +1090,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -1122,13 +1122,13 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1195,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -1218,7 +1218,7 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -1227,19 +1227,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -1355,19 +1355,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1804,16 +1804,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -1900,22 +1900,22 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -1927,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1964,16 +1964,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2028,31 +2028,31 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2060,10 +2060,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -2072,19 +2072,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -2104,19 +2104,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2156,39 +2156,39 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -2203,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -2215,76 +2215,76 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -2311,18 +2311,18 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2331,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -2348,16 +2348,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2380,13 +2380,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -2407,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2418,39 +2418,39 @@
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -2471,18 +2471,18 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2503,18 +2503,18 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -2535,18 +2535,18 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -2599,18 +2599,18 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -2631,18 +2631,18 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2674,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3033,22 +3033,22 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -3060,18 +3060,18 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -3083,13 +3083,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -3097,16 +3097,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -3138,22 +3138,22 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -3193,10 +3193,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -3225,10 +3225,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -3240,16 +3240,16 @@
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -3257,13 +3257,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -3275,13 +3275,13 @@
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -3298,13 +3298,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -3316,21 +3316,21 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -3385,13 +3385,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -3449,13 +3449,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -3464,16 +3464,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -3481,13 +3481,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -3496,16 +3496,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3545,10 +3545,10 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -3572,12 +3572,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3641,16 +3641,16 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3910,10 +3910,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -3937,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4038,13 +4038,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -4053,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -4070,13 +4070,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -4085,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -4097,18 +4097,18 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -4120,21 +4120,21 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4143,22 +4143,22 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -4166,13 +4166,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -4181,16 +4181,16 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -4198,16 +4198,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -4216,13 +4216,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -4230,16 +4230,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -4248,36 +4248,36 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -4326,13 +4326,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -4344,13 +4344,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4361,10 +4361,10 @@
         <v>34</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -4422,10 +4422,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -4434,27 +4434,27 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -4486,22 +4486,22 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -4518,10 +4518,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -4533,16 +4533,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -4550,22 +4550,22 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -4577,12 +4577,12 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4591,13 +4591,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4678,16 +4678,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -4737,12 +4737,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_25.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_25.xlsx
@@ -58,9 +58,6 @@
     <t>Clicks on course</t>
   </si>
   <si>
-    <t>Days with no interaction</t>
-  </si>
-  <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
@@ -76,10 +73,16 @@
     <t>Number of sessions</t>
   </si>
   <si>
+    <t>Days with no interaction</t>
+  </si>
+  <si>
     <t>Days with no interaction (%)</t>
   </si>
   <si>
     <t>Clicks per day</t>
+  </si>
+  <si>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Clicks (% of course total)</t>
@@ -91,13 +94,7 @@
     <t>Number of clicks</t>
   </si>
   <si>
-    <t>Start of Session 10 (%)</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
+    <t>Number of days</t>
   </si>
   <si>
     <t>Links viewed</t>
@@ -115,16 +112,19 @@
     <t>Start of Session 5 (%)</t>
   </si>
   <si>
-    <t>Number of days</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
+    <t>Assignments viewed</t>
   </si>
   <si>
     <t>Clicks on forum</t>
   </si>
   <si>
     <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Assignments submitted</t>
@@ -136,7 +136,7 @@
     <t>Quizzes started</t>
   </si>
   <si>
-    <t>Start of Session 9 (%)</t>
+    <t>Files downloaded</t>
   </si>
   <si>
     <t>Discussions viewed</t>
@@ -145,7 +145,7 @@
     <t>Submissions (% of course total)</t>
   </si>
   <si>
-    <t>Files downloaded</t>
+    <t>Start of Session 9 (%)</t>
   </si>
 </sst>
 </file>
@@ -648,13 +648,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -709,10 +709,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -741,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -776,13 +776,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -901,25 +901,25 @@
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -962,10 +962,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1067,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -1122,7 +1122,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -1154,7 +1154,7 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -1163,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -1186,7 +1186,7 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -1195,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -1323,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1941,22 +1941,22 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -1964,16 +1964,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -1982,13 +1982,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -1996,10 +1996,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -2023,36 +2023,36 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2060,10 +2060,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -2072,19 +2072,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -2104,19 +2104,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -2151,111 +2151,111 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -2264,65 +2264,65 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2331,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -2348,16 +2348,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2380,13 +2380,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -2407,18 +2407,18 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2439,18 +2439,18 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -2567,18 +2567,18 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -2599,18 +2599,18 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -2631,18 +2631,18 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2674,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3036,7 +3036,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -3065,19 +3065,19 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -3097,16 +3097,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -3115,13 +3115,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -3129,16 +3129,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -3147,13 +3147,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -3176,24 +3176,24 @@
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -3225,22 +3225,22 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -3269,19 +3269,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -3289,71 +3289,71 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -3362,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -3380,12 +3380,12 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -3452,28 +3452,28 @@
         <v>31</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3513,13 +3513,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -3528,16 +3528,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -3545,13 +3545,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3641,16 +3641,16 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -3700,12 +3700,12 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3951,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -3969,21 +3969,21 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4015,13 +4015,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4047,13 +4047,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -4073,13 +4073,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -4097,12 +4097,12 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4111,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4120,21 +4120,21 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4143,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -4152,27 +4152,27 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -4198,16 +4198,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -4216,13 +4216,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -4230,13 +4230,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -4248,13 +4248,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -4262,19 +4262,19 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -4289,24 +4289,24 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4358,39 +4358,39 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -4402,51 +4402,51 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -4454,10 +4454,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -4466,33 +4466,33 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -4501,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -4513,12 +4513,12 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4591,13 +4591,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4655,13 +4655,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -4678,16 +4678,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -4737,12 +4737,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_25.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_25.xlsx
@@ -55,7 +55,7 @@
     <t>Resources viewed</t>
   </si>
   <si>
-    <t>Clicks on course</t>
+    <t>Days with no interaction</t>
   </si>
   <si>
     <t>Largest period of inactivity (h)</t>
@@ -70,19 +70,16 @@
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
-    <t>Number of sessions</t>
+    <t>Clicks on course</t>
   </si>
   <si>
-    <t>Days with no interaction</t>
+    <t>Number of sessions</t>
   </si>
   <si>
     <t>Days with no interaction (%)</t>
   </si>
   <si>
     <t>Clicks per day</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Clicks (% of course total)</t>
@@ -94,22 +91,19 @@
     <t>Number of clicks</t>
   </si>
   <si>
-    <t>Number of days</t>
-  </si>
-  <si>
-    <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
+    <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
+    <t>Number of days</t>
   </si>
   <si>
     <t>Assignments viewed</t>
@@ -118,13 +112,22 @@
     <t>Clicks on forum</t>
   </si>
   <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
     <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Start of Session 3 (%)</t>
   </si>
   <si>
-    <t>Start of Session 8 (%)</t>
+    <t>Quizzes started</t>
   </si>
   <si>
     <t>Assignments submitted</t>
@@ -133,19 +136,16 @@
     <t>Forum posts</t>
   </si>
   <si>
-    <t>Quizzes started</t>
+    <t>Discussions viewed</t>
   </si>
   <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Discussions viewed</t>
+    <t>Start of Session 9 (%)</t>
   </si>
   <si>
     <t>Submissions (% of course total)</t>
   </si>
   <si>
-    <t>Start of Session 9 (%)</t>
+    <t>Files downloaded</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -773,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -901,25 +901,25 @@
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -962,10 +962,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -994,7 +994,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -1026,31 +1026,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1058,7 +1058,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1067,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -1090,7 +1090,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -1128,13 +1128,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -1154,28 +1154,28 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -1186,7 +1186,7 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -1218,28 +1218,28 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -1323,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -1355,19 +1355,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1941,22 +1941,22 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -1964,16 +1964,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -1982,13 +1982,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -2005,13 +2005,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -2023,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2031,7 +2031,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2060,10 +2060,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -2072,19 +2072,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2104,19 +2104,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -2136,126 +2136,126 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -2264,83 +2264,83 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -2348,31 +2348,31 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -2380,13 +2380,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -2407,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2418,39 +2418,39 @@
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -2471,18 +2471,18 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2503,18 +2503,18 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -2535,12 +2535,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2572,13 +2572,13 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -2599,18 +2599,18 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2674,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2914,13 +2914,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -2937,16 +2937,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3010,13 +3010,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -3033,16 +3033,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -3092,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3129,7 +3129,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -3188,12 +3188,12 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -3225,31 +3225,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -3257,10 +3257,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -3289,10 +3289,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -3301,74 +3301,74 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -3380,15 +3380,15 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -3400,16 +3400,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3513,13 +3513,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -3545,13 +3545,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4015,13 +4015,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4134,22 +4134,22 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -4161,15 +4161,15 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -4181,16 +4181,16 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -4230,16 +4230,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -4248,13 +4248,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -4271,13 +4271,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -4294,10 +4294,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -4306,19 +4306,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4338,19 +4338,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4370,19 +4370,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -4390,10 +4390,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -4425,7 +4425,7 @@
         <v>27</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -4434,33 +4434,33 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -4518,13 +4518,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -4536,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -4550,13 +4550,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -4568,30 +4568,30 @@
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4655,13 +4655,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -4678,13 +4678,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_25.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_25.xlsx
@@ -52,6 +52,9 @@
     <t>Total time online (min)</t>
   </si>
   <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
     <t>Resources viewed</t>
   </si>
   <si>
@@ -62,9 +65,6 @@
   </si>
   <si>
     <t>Average session duration (min)</t>
-  </si>
-  <si>
-    <t>Start of Session 1 (%)</t>
   </si>
   <si>
     <t>Start of Session 2 (%)</t>
@@ -91,13 +91,13 @@
     <t>Number of clicks</t>
   </si>
   <si>
+    <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
     <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Start of Session 5 (%)</t>
@@ -112,13 +112,13 @@
     <t>Clicks on forum</t>
   </si>
   <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
     <t>Links viewed</t>
   </si>
   <si>
     <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Start of Session 8 (%)</t>
@@ -622,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -648,13 +648,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -709,10 +709,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -994,7 +994,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1026,31 +1026,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1058,7 +1058,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1067,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -1227,19 +1227,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -1250,7 +1250,7 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1799,18 +1799,18 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1845,13 +1845,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -1868,13 +1868,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1895,12 +1895,12 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1915,33 +1915,33 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -1950,13 +1950,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -1964,16 +1964,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -1996,31 +1996,31 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -2055,27 +2055,27 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -2087,12 +2087,12 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2104,126 +2104,126 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -2247,18 +2247,18 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -2279,53 +2279,53 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -2348,45 +2348,45 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -2407,18 +2407,18 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2439,50 +2439,50 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2503,18 +2503,18 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -2535,12 +2535,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2674,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2914,13 +2914,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -2937,16 +2937,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -2969,16 +2969,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -2996,18 +2996,18 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -3028,18 +3028,18 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -3060,12 +3060,12 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3083,27 +3083,27 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -3112,16 +3112,16 @@
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -3147,30 +3147,30 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -3225,54 +3225,54 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -3284,21 +3284,21 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -3330,10 +3330,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -3353,10 +3353,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -3368,16 +3368,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -3385,13 +3385,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -3400,16 +3400,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -3449,16 +3449,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -3513,10 +3513,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -3545,10 +3545,10 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -3572,12 +3572,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3586,13 +3586,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3618,13 +3618,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -3641,16 +3641,16 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3910,13 +3910,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -3937,15 +3937,15 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -3969,21 +3969,21 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4070,16 +4070,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4111,13 +4111,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -4134,10 +4134,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -4149,16 +4149,16 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -4166,16 +4166,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -4184,13 +4184,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -4230,10 +4230,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -4248,16 +4248,16 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4265,16 +4265,16 @@
         <v>31</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -4289,36 +4289,36 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4326,22 +4326,22 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -4358,13 +4358,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -4373,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -4390,39 +4390,39 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -4449,36 +4449,36 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -4486,10 +4486,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -4498,10 +4498,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -4513,18 +4513,18 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -4536,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4562,19 +4562,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -4582,16 +4582,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -4614,16 +4614,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4687,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -4737,12 +4737,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_25.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_25.xlsx
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1799,18 +1799,18 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1845,13 +1845,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -1868,13 +1868,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1895,12 +1895,12 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1915,33 +1915,33 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -1950,13 +1950,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -1964,19 +1964,19 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -1991,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2028,77 +2028,77 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -2107,30 +2107,30 @@
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -2151,12 +2151,12 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -2220,10 +2220,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -2235,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -2284,19 +2284,19 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2456,19 +2456,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2841,10 +2841,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -2868,21 +2868,21 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -2969,16 +2969,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -2996,7 +2996,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -3028,27 +3028,27 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -3060,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3097,22 +3097,22 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -3147,30 +3147,30 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -3188,18 +3188,18 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -3211,13 +3211,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -3252,27 +3252,27 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -3284,21 +3284,21 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -3316,12 +3316,12 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -3330,10 +3330,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -3353,31 +3353,31 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -3388,10 +3388,10 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -3417,13 +3417,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -3449,10 +3449,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -3481,10 +3481,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -3493,30 +3493,30 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3560,24 +3560,24 @@
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3586,13 +3586,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3618,13 +3618,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -3641,16 +3641,16 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -3700,12 +3700,12 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3910,13 +3910,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -3937,21 +3937,21 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4038,16 +4038,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -4065,18 +4065,18 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -4088,21 +4088,21 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4117,30 +4117,30 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -4149,16 +4149,16 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -4166,22 +4166,22 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -4198,13 +4198,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -4216,13 +4216,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -4230,31 +4230,31 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4274,19 +4274,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -4303,13 +4303,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -4326,22 +4326,22 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -4358,31 +4358,31 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -4390,10 +4390,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -4408,16 +4408,16 @@
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4454,10 +4454,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -4481,18 +4481,18 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -4501,16 +4501,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4530,19 +4530,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -4550,22 +4550,22 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4614,16 +4614,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4687,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
